--- a/list.xlsx
+++ b/list.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Juff/Documents/EbayAChecker-master/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,20 +12,20 @@
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="128">
   <si>
     <t>Asign</t>
   </si>
@@ -224,6 +219,15 @@
     <t>http://www.ebay.com/itm/RC-Power-BB-Tank-Radio-Remote-Control-Military-Battle-Tank-that-Shoots-New-/172444177414?hash=item2826795406:g:PCwAAOSwCEdYUGaU</t>
   </si>
   <si>
+    <t>Ebay name</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Purchased</t>
+  </si>
+  <si>
     <t>NEW Gator Grip Universal Socket Wrench Power Drill Adapter 2 Piece Set USA</t>
   </si>
   <si>
@@ -242,10 +246,10 @@
     <t>203,48</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>SALE Wiha 39291 Pistol Ratchet Bit and Socket Set 59 Pc w FREE SURPRISE TOOL</t>
@@ -405,21 +409,12 @@
   </si>
   <si>
     <t>94,40</t>
-  </si>
-  <si>
-    <t>Ebay name</t>
-  </si>
-  <si>
-    <t>Availability</t>
-  </si>
-  <si>
-    <t>Purchased</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="4">
     <font>
@@ -824,16 +819,16 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:L1048576"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.1640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,19 +851,19 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="K1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -891,19 +886,19 @@
         <v>0.1229</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -926,19 +921,19 @@
         <v>0.35759999999999997</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -961,19 +956,19 @@
         <v>0.34460000000000002</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -996,19 +991,19 @@
         <v>0.72640000000000005</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1031,19 +1026,19 @@
         <v>1.2666999999999999</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1066,19 +1061,19 @@
         <v>0.625</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1101,19 +1096,19 @@
         <v>0.24229999999999999</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1136,19 +1131,19 @@
         <v>0.74650000000000005</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1171,19 +1166,19 @@
         <v>0.4783</v>
       </c>
       <c r="H10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -1206,19 +1201,19 @@
         <v>0.95799999999999996</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -1241,19 +1236,19 @@
         <v>0.20200000000000001</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -1276,19 +1271,19 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -1314,16 +1309,16 @@
         <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
@@ -1346,19 +1341,19 @@
         <v>0.44240000000000002</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1381,19 +1376,19 @@
         <v>0.36</v>
       </c>
       <c r="H16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -1419,16 +1414,16 @@
         <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>55</v>
       </c>
@@ -1451,19 +1446,19 @@
         <v>0.2823</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
@@ -1486,19 +1481,19 @@
         <v>0.4078</v>
       </c>
       <c r="H19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I19" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
@@ -1521,16 +1516,16 @@
         <v>0.16320000000000001</v>
       </c>
       <c r="H20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I20" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/list.xlsx
+++ b/list.xlsx
@@ -14,7 +14,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
   <si>
     <t>Asign</t>
   </si>
@@ -49,13 +49,65 @@
   </si>
   <si>
     <t>Min price</t>
+  </si>
+  <si>
+    <t>https://www.walmart.com/ip/IRWIN-VISE-GRIP-2076709-Fast-Release-Locking-Plier-Set-6Pc/40751123</t>
+  </si>
+  <si>
+    <t>https://www.walmart.com/ip/CHAMBERLAIN-CWA2000-Wireless-Motion-Alert-System/14554538</t>
+  </si>
+  <si>
+    <t>https://www.walmart.com/ip/Air-Purifier-Hepa-Carbon-Ionic-Ozone-Generator-Cleaner-UV-C-with-Remote/179032464</t>
+  </si>
+  <si>
+    <t>https://www.walmart.com/ip/4PC-Self-Adjusting-Quick-Release-Pipe-Wrench-Drop-Forge-Plumbing/193316668</t>
+  </si>
+  <si>
+    <t>https://www.walmart.com/ip/Torque-Multiplier-Wrench-Lug-Nut-Remover-with-4-cr-v-sockets/102917115</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Purchased</t>
+  </si>
+  <si>
+    <t>Undefined</t>
+  </si>
+  <si>
+    <t>Something wrong with this listing. Check it by yourself!</t>
+  </si>
+  <si>
+    <t>Air Purifier Hepa Carbon Ionic Ozone Generator Cleaner UV-C, with Remote</t>
+  </si>
+  <si>
+    <t>97,93</t>
+  </si>
+  <si>
+    <t>Availible</t>
+  </si>
+  <si>
+    <t>4PC Self-Adjusting Quick Release Pipe Wrench Drop Forge Plumbing</t>
+  </si>
+  <si>
+    <t>49,93</t>
+  </si>
+  <si>
+    <t>Torque Multiplier Wrench Lug Nut Remover, with 4 cr-v sockets</t>
+  </si>
+  <si>
+    <t>53,93</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +122,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,16 +164,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,15 +459,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="17" customWidth="1" collapsed="1"/>
+    <col min="1" max="8" customWidth="true" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -428,9 +495,148 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>